--- a/app/tmp/excels/remittance_template.xlsx
+++ b/app/tmp/excels/remittance_template.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takano yohei\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="10545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="sub_template" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -86,9 +81,6 @@
   </si>
   <si>
     <t>現地支払い額</t>
-  </si>
-  <si>
-    <t>ＲＷからPDへの振り込み額</t>
   </si>
   <si>
     <t>HI\</t>
@@ -266,6 +258,30 @@
         <charset val="128"/>
       </rPr>
       <t>手配料</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ＲＷからH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>への振り込み額</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -830,25 +846,25 @@
     </row>
     <row r="4" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -863,9 +879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,19 +941,19 @@
         <v>11</v>
       </c>
       <c r="L4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="N4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="O4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="P4" s="34" t="s">
         <v>26</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>27</v>
       </c>
       <c r="Q4" s="30" t="s">
         <v>12</v>
@@ -1222,7 +1238,7 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D15" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2">
         <f>M13</f>
@@ -1248,8 +1264,8 @@
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D18" s="8" t="s">
-        <v>22</v>
+      <c r="D18" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="2">
         <f>SUM(F15:F17)</f>
